--- a/result/with_base/123/valence/s16_0.xlsx
+++ b/result/with_base/123/valence/s16_0.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9190848171710968</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8250000178813934</v>
+        <v>0.7421875</v>
       </c>
       <c r="C2" t="n">
-        <v>41709.412109375</v>
+        <v>11284.13427734375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7819318229501898</v>
+        <v>0.7567620803328121</v>
       </c>
       <c r="E2" t="n">
-        <v>41714.07492897727</v>
+        <v>11283.79107306985</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8525000214576721</v>
+        <v>0.8292410671710968</v>
       </c>
       <c r="C3" t="n">
-        <v>40940.04296875</v>
+        <v>10982.2001953125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8500000021674416</v>
+        <v>0.8524816176470589</v>
       </c>
       <c r="E3" t="n">
-        <v>40941.52166193182</v>
+        <v>10980.63373161765</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8600000143051147</v>
+        <v>0.83203125</v>
       </c>
       <c r="C4" t="n">
-        <v>40174.7578125</v>
+        <v>10684.06884765625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8892045454545454</v>
+        <v>0.8858981097445768</v>
       </c>
       <c r="E4" t="n">
-        <v>40174.07705965909</v>
+        <v>10683.22610294118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8700000047683716</v>
+        <v>0.8638392984867096</v>
       </c>
       <c r="C5" t="n">
-        <v>39417.4296875</v>
+        <v>10391.99658203125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9130681861530651</v>
+        <v>0.9004726900773889</v>
       </c>
       <c r="E5" t="n">
-        <v>39416.79438920454</v>
+        <v>10390.55221737132</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.8604910671710968</v>
       </c>
       <c r="C6" t="n">
-        <v>38672.51953125</v>
+        <v>10104.53125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9227272813970392</v>
+        <v>0.9267988450386945</v>
       </c>
       <c r="E6" t="n">
-        <v>38670.07279829546</v>
+        <v>10103.47449448529</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.862500011920929</v>
+        <v>0.8537946343421936</v>
       </c>
       <c r="C7" t="n">
-        <v>37936.763671875</v>
+        <v>9824.400390625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9337499954483726</v>
+        <v>0.9352678586454952</v>
       </c>
       <c r="E7" t="n">
-        <v>37935.11931818182</v>
+        <v>9822.73983226103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8849999904632568</v>
+        <v>0.8655133843421936</v>
       </c>
       <c r="C8" t="n">
-        <v>37212.4375</v>
+        <v>9550.0322265625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9540908986871893</v>
+        <v>0.9476102941176471</v>
       </c>
       <c r="E8" t="n">
-        <v>37211.06463068182</v>
+        <v>9548.688821231617</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9175000190734863</v>
+        <v>0.8911830484867096</v>
       </c>
       <c r="C9" t="n">
-        <v>36499.876953125</v>
+        <v>9282.3134765625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9623863642865961</v>
+        <v>0.9506959038622239</v>
       </c>
       <c r="E9" t="n">
-        <v>36499.16583806818</v>
+        <v>9281.103687959559</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.8688616156578064</v>
       </c>
       <c r="C10" t="n">
-        <v>35800.470703125</v>
+        <v>9021.21484375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9646590839732777</v>
+        <v>0.9571297273916357</v>
       </c>
       <c r="E10" t="n">
-        <v>35799.42009943182</v>
+        <v>9019.938591452206</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.89453125</v>
       </c>
       <c r="C11" t="n">
-        <v>35113.00390625</v>
+        <v>8766.29150390625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9681818268515847</v>
+        <v>0.9605435939396129</v>
       </c>
       <c r="E11" t="n">
-        <v>35111.61292613636</v>
+        <v>8765.222541360294</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9375</v>
+        <v>0.890625</v>
       </c>
       <c r="C12" t="n">
-        <v>34437.205078125</v>
+        <v>8517.88134765625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9637499885125593</v>
+        <v>0.960674895959742</v>
       </c>
       <c r="E12" t="n">
-        <v>34436.08203125</v>
+        <v>8516.723747702206</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.890625</v>
       </c>
       <c r="C13" t="n">
-        <v>33773.09765625</v>
+        <v>8275.61865234375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.973522733558308</v>
+        <v>0.9644826685681063</v>
       </c>
       <c r="E13" t="n">
-        <v>33771.97301136364</v>
+        <v>8274.589211856617</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.88671875</v>
       </c>
       <c r="C14" t="n">
-        <v>33120.98046875</v>
+        <v>8039.27783203125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.985113647851077</v>
+        <v>0.9636292001780342</v>
       </c>
       <c r="E14" t="n">
-        <v>33119.46448863636</v>
+        <v>8038.546415441177</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.8956473171710968</v>
       </c>
       <c r="C15" t="n">
-        <v>32480.07421875</v>
+        <v>7809.48046875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9763636480678212</v>
+        <v>0.9791885509210474</v>
       </c>
       <c r="E15" t="n">
-        <v>32478.87642045454</v>
+        <v>7808.353889016544</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.8872767984867096</v>
       </c>
       <c r="C16" t="n">
-        <v>31850.8671875</v>
+        <v>7585.3408203125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9801136472008445</v>
+        <v>0.9811580882352942</v>
       </c>
       <c r="E16" t="n">
-        <v>31849.64879261364</v>
+        <v>7584.144674862132</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.9040178656578064</v>
       </c>
       <c r="C17" t="n">
-        <v>31233.75</v>
+        <v>7366.674560546875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9842045578089628</v>
+        <v>0.9825367647058824</v>
       </c>
       <c r="E17" t="n">
-        <v>31231.70454545454</v>
+        <v>7365.670180376838</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8917410671710968</v>
       </c>
       <c r="C18" t="n">
-        <v>30626.2734375</v>
+        <v>7153.787841796875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9854545593261719</v>
+        <v>0.987985817825093</v>
       </c>
       <c r="E18" t="n">
-        <v>30624.84463778409</v>
+        <v>7152.826200597427</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.8967633843421936</v>
       </c>
       <c r="C19" t="n">
-        <v>30030.259765625</v>
+        <v>6946.46435546875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9888636469841003</v>
+        <v>0.9828650215092827</v>
       </c>
       <c r="E19" t="n">
-        <v>30028.94620028409</v>
+        <v>6945.593951056985</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.8922991156578064</v>
       </c>
       <c r="C20" t="n">
-        <v>29444.9365234375</v>
+        <v>6744.65380859375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9927272796630859</v>
+        <v>0.9875262590015635</v>
       </c>
       <c r="E20" t="n">
-        <v>29443.92134232954</v>
+        <v>6743.695025275735</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9090401828289032</v>
       </c>
       <c r="C21" t="n">
-        <v>28871.076171875</v>
+        <v>6548.1865234375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9810924354721519</v>
       </c>
       <c r="E21" t="n">
-        <v>28869.55841619318</v>
+        <v>6547.157082950368</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.949999988079071</v>
+        <v>0.8872767984867096</v>
       </c>
       <c r="C22" t="n">
-        <v>28306.5146484375</v>
+        <v>6356.497314453125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.990000004118139</v>
+        <v>0.9879201685681063</v>
       </c>
       <c r="E22" t="n">
-        <v>28305.67240767046</v>
+        <v>6355.747386259191</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.8995535671710968</v>
       </c>
       <c r="C23" t="n">
-        <v>27752.7392578125</v>
+        <v>6170.229736328125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9901136430827054</v>
+        <v>0.9897584038622239</v>
       </c>
       <c r="E23" t="n">
-        <v>27752.09552556818</v>
+        <v>6169.47762522978</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.87890625</v>
       </c>
       <c r="C24" t="n">
-        <v>27209.8740234375</v>
+        <v>5989.059326171875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.9911370803328121</v>
       </c>
       <c r="E24" t="n">
-        <v>27208.68607954546</v>
+        <v>5988.12637867647</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9375</v>
+        <v>0.9090401828289032</v>
       </c>
       <c r="C25" t="n">
-        <v>26676.3115234375</v>
+        <v>5812.26513671875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9918181896209717</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E25" t="n">
-        <v>26675.26136363636</v>
+        <v>5811.656020220588</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.8783482015132904</v>
       </c>
       <c r="C26" t="n">
-        <v>26152.330078125</v>
+        <v>5640.883544921875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9902272820472717</v>
+        <v>0.9843093472368577</v>
       </c>
       <c r="E26" t="n">
-        <v>26151.68767755682</v>
+        <v>5639.951200597427</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9073660671710968</v>
       </c>
       <c r="C27" t="n">
-        <v>25638.462890625</v>
+        <v>5473.41650390625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9913636445999146</v>
+        <v>0.9883797273916357</v>
       </c>
       <c r="E27" t="n">
-        <v>25637.74325284091</v>
+        <v>5472.845502068015</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.8989955484867096</v>
       </c>
       <c r="C28" t="n">
-        <v>25133.9462890625</v>
+        <v>5310.80078125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9922727346420288</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E28" t="n">
-        <v>25133.26686789773</v>
+        <v>5310.193014705882</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9375</v>
+        <v>0.9112723171710968</v>
       </c>
       <c r="C29" t="n">
-        <v>24638.904296875</v>
+        <v>5152.5205078125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9902272820472717</v>
+        <v>0.9870010509210474</v>
       </c>
       <c r="E29" t="n">
-        <v>24638.24129971591</v>
+        <v>5152.000517003677</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9090401828289032</v>
       </c>
       <c r="C30" t="n">
-        <v>24153.2607421875</v>
+        <v>4998.617431640625</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9921590956774625</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E30" t="n">
-        <v>24152.34339488636</v>
+        <v>4998.047593060662</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9001116156578064</v>
       </c>
       <c r="C31" t="n">
-        <v>23676.5498046875</v>
+        <v>4848.946533203125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9875919117647058</v>
       </c>
       <c r="E31" t="n">
-        <v>23675.44442471591</v>
+        <v>4848.305922564338</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.8956473171710968</v>
       </c>
       <c r="C32" t="n">
-        <v>23208.369140625</v>
+        <v>4703.189208984375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9952272772789001</v>
+        <v>0.9910714275696698</v>
       </c>
       <c r="E32" t="n">
-        <v>23207.40323153409</v>
+        <v>4702.641544117647</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9034598171710968</v>
       </c>
       <c r="C33" t="n">
-        <v>22748.5771484375</v>
+        <v>4561.44189453125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E33" t="n">
-        <v>22748.02379261364</v>
+        <v>4560.937844669118</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C34" t="n">
-        <v>22298.48828125</v>
+        <v>4423.601806640625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E34" t="n">
-        <v>22297.25532670454</v>
+        <v>4423.146714154412</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.8956473171710968</v>
       </c>
       <c r="C35" t="n">
-        <v>21855.7255859375</v>
+        <v>4289.77197265625</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9794318350878629</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E35" t="n">
-        <v>21854.94744318182</v>
+        <v>4289.161965762868</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9118303656578064</v>
       </c>
       <c r="C36" t="n">
-        <v>21421.591796875</v>
+        <v>4159.226806640625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9943181872367859</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E36" t="n">
-        <v>21420.71022727273</v>
+        <v>4158.808536305147</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9375</v>
+        <v>0.8995535671710968</v>
       </c>
       <c r="C37" t="n">
-        <v>20995.3515625</v>
+        <v>4032.579711914062</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9898897058823529</v>
       </c>
       <c r="E37" t="n">
-        <v>20994.66637073864</v>
+        <v>4032.090662339154</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9012276828289032</v>
       </c>
       <c r="C38" t="n">
-        <v>20577.55078125</v>
+        <v>3909.375610351562</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9906818270683289</v>
+        <v>0.9809611334520227</v>
       </c>
       <c r="E38" t="n">
-        <v>20576.66193181818</v>
+        <v>3908.883674172794</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C39" t="n">
-        <v>20166.9765625</v>
+        <v>3789.370483398438</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9820115531192106</v>
       </c>
       <c r="E39" t="n">
-        <v>20166.36576704546</v>
+        <v>3789.074319278493</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C40" t="n">
-        <v>19764.7763671875</v>
+        <v>3672.916625976562</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9911370803328121</v>
       </c>
       <c r="E40" t="n">
-        <v>19763.80362215909</v>
+        <v>3672.610021254596</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9196428656578064</v>
       </c>
       <c r="C41" t="n">
-        <v>19369.4189453125</v>
+        <v>3559.740844726562</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9898897058823529</v>
       </c>
       <c r="E41" t="n">
-        <v>19368.71164772727</v>
+        <v>3559.408504710478</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C42" t="n">
-        <v>18981.7939453125</v>
+        <v>3449.734497070312</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9866727941176471</v>
       </c>
       <c r="E42" t="n">
-        <v>18981.02911931818</v>
+        <v>3449.392477596507</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C43" t="n">
-        <v>18601.0419921875</v>
+        <v>3342.694946289062</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9889049354721519</v>
       </c>
       <c r="E43" t="n">
-        <v>18600.64275568182</v>
+        <v>3342.447437959559</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C44" t="n">
-        <v>18227.7041015625</v>
+        <v>3238.741333007812</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.9838497884133283</v>
       </c>
       <c r="E44" t="n">
-        <v>18227.31107954546</v>
+        <v>3238.51025390625</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C45" t="n">
-        <v>17861.5810546875</v>
+        <v>3137.774658203125</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E45" t="n">
-        <v>17861.044921875</v>
+        <v>3137.477596507353</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C46" t="n">
-        <v>17502.1904296875</v>
+        <v>3039.538452148438</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E46" t="n">
-        <v>17501.62588778409</v>
+        <v>3039.297636144302</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C47" t="n">
-        <v>17149.51171875</v>
+        <v>2944.12255859375</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9897584038622239</v>
       </c>
       <c r="E47" t="n">
-        <v>17148.94016335227</v>
+        <v>2943.911893956802</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C48" t="n">
-        <v>16803.361328125</v>
+        <v>2851.504760742188</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E48" t="n">
-        <v>16802.91317471591</v>
+        <v>2851.232795266544</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C49" t="n">
-        <v>16463.8642578125</v>
+        <v>2761.447509765625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9921875</v>
       </c>
       <c r="E49" t="n">
-        <v>16463.41104403409</v>
+        <v>2761.193833295037</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C50" t="n">
-        <v>16130.73046875</v>
+        <v>2673.937133789062</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9889705882352942</v>
       </c>
       <c r="E50" t="n">
-        <v>16130.30308948864</v>
+        <v>2673.727366727941</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,850 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9190848171710968</v>
       </c>
       <c r="C51" t="n">
-        <v>15804.12646484375</v>
+        <v>2588.973754882812</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9839154411764706</v>
       </c>
       <c r="E51" t="n">
-        <v>15803.46324573864</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15483.3740234375</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15482.80051491477</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15168.73046875</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15168.19078480114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14859.9169921875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14859.51518110795</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14557.162109375</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14556.67080965909</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14260.17724609375</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9909090995788574</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14259.59321732955</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13968.662109375</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13968.1181640625</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13682.46728515625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13682.17453835227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13402.2060546875</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13401.65447443182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13126.900390625</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13126.48304332386</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12856.9736328125</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12856.52787642045</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12592.0595703125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12591.71963778409</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12332.35693359375</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12331.95658735795</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12077.3779296875</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12077.14044744318</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11827.4990234375</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11827.18341619318</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11582.24072265625</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11582.01012073864</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11341.8095703125</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11341.52982954545</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11105.947265625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11105.65633877841</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10874.45703125</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10874.28302556818</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10647.5908203125</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10647.38112571023</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10425.11474609375</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9945454597473145</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10424.86807528409</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10206.8154296875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10206.60635653409</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9992.76904296875</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9992.542169744318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9782.80078125</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9782.602805397728</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9576.8857421875</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9576.711736505682</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9375.05810546875</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9374.795543323864</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9177.06201171875</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9176.80868252841</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8982.826171875</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8982.647283380682</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8792.51953125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9940909147262573</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8792.289595170454</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8605.84619140625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9936363697052002</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8605.6005859375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8422.767578125</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9912500056353483</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8422.557439630682</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9892287129491313</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.01265822784810127</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9892287129491313</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8198757763975155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.01265822784810127</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9892287129491313</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.84472049689441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.01265822784810127</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9892287129491313</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8757763975155279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.01265822784810127</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9892287129491313</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8881987577639752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01265822784810127</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9892287129491313</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9751552795031055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.08860759493670886</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9892287129491313</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9751552795031055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.08860759493670886</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9892287129491313</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9875776397515528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1518987341772152</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9892287129491313</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9875776397515528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1518987341772152</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9892287129491313</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9937888198757764</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2531645569620253</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9892287129491313</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9937888198757764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2531645569620253</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9892287129491313</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9892287129491313</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9881279974840789</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4810126582278481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9881279974840789</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7468354430379747</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.006211180124223602</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9881279974840789</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7468354430379747</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.006211180124223602</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9881279974840789</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8481012658227848</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.0124223602484472</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9881279974840789</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8481012658227848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.0124223602484472</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9881279974840789</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9113924050632911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.02484472049689441</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9881279974840789</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9113924050632911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.02484472049689441</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9881279974840789</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9873417721518988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.6770186335403726</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9881279974840789</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9873417721518988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.6770186335403726</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9881279974840789</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9881279974840789</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+        <v>2588.776453354779</v>
       </c>
     </row>
   </sheetData>
